--- a/excel/import/data.xlsx
+++ b/excel/import/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbenastey\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8919B10C-2A50-40C1-8FDC-9AF9D7D863FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BC6BE1-E98D-40FC-81DF-5130CA2D6881}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{D30C9278-207D-415C-9E7B-8C0ACF7B1875}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="42">
   <si>
     <t>id_buku</t>
   </si>
@@ -90,27 +90,9 @@
     <t>nik</t>
   </si>
   <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>ad</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>asdds</t>
-  </si>
-  <si>
-    <t>adsa</t>
-  </si>
-  <si>
-    <t>ASD</t>
-  </si>
-  <si>
-    <t>AD</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -123,9 +105,6 @@
     <t>7</t>
   </si>
   <si>
-    <t>1323</t>
-  </si>
-  <si>
     <t>ASDDA</t>
   </si>
   <si>
@@ -139,16 +118,64 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>jihad</t>
+  </si>
+  <si>
+    <t>ucok</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>14423</t>
+  </si>
+  <si>
+    <t>13232</t>
+  </si>
+  <si>
+    <t>usman</t>
+  </si>
+  <si>
+    <t>ujang</t>
+  </si>
+  <si>
+    <t>13233</t>
+  </si>
+  <si>
+    <t>13234</t>
+  </si>
+  <si>
+    <t>13235</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>daspro</t>
+  </si>
+  <si>
+    <t>metnum</t>
+  </si>
+  <si>
+    <t>data warehouse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -497,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A68A2B-6521-4545-B623-97BE74CD28A7}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A4" sqref="A4:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,13 +593,46 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -590,10 +650,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5959E06-8FA6-41AE-B972-6DDCB35664C8}">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,28 +771,106 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="M4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>28</v>
+      <c r="M5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -751,10 +889,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39CC282B-DF61-4F41-92BC-7FA7D2131033}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,13 +958,46 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -844,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DECE7FFA-EC79-4AC4-81F2-57E9B2BDEA11}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,28 +1055,98 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>